--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed3/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.57</v>
+        <v>16.797</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.559999999999999</v>
+        <v>-8.559000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.644</v>
+        <v>-8.231999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.12</v>
+        <v>-7.289999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.132</v>
+        <v>17.035</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.052</v>
+        <v>16.367</v>
       </c>
     </row>
     <row r="16">
@@ -743,10 +743,10 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.034000000000001</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>16.434</v>
+        <v>16.353</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.694</v>
+        <v>16.459</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.614000000000001</v>
+        <v>-8.228999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.238</v>
+        <v>16.474</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.884</v>
+        <v>16.527</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.258</v>
+        <v>16.552</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.372</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.05</v>
+        <v>16.815</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48</v>
+        <v>16.319</v>
       </c>
     </row>
     <row r="51">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.632</v>
+        <v>16.692</v>
       </c>
     </row>
     <row r="55">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.436</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,10 +1593,10 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.904000000000001</v>
+        <v>-7.188</v>
       </c>
       <c r="E68" t="n">
-        <v>18.11</v>
+        <v>17.777</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="77">
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-8.391999999999999</v>
+        <v>-7.936</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.436000000000002</v>
+        <v>-7.983999999999999</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.484</v>
+        <v>-7.609</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1797,7 +1797,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.112</v>
+        <v>-7.923</v>
       </c>
       <c r="E80" t="n">
         <v>16.41</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.276</v>
+        <v>-7.536</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.522</v>
+        <v>-8.154</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.315999999999999</v>
+        <v>-8.504999999999999</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.562</v>
+        <v>16.366</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.48</v>
+        <v>16.278</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.514</v>
+        <v>17.658</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.82</v>
+        <v>16.325</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.336</v>
+        <v>16.299</v>
       </c>
     </row>
     <row r="99">
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.638</v>
+        <v>-7.845000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>15.982</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.110000000000001</v>
+        <v>-8.098000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.674</v>
       </c>
     </row>
   </sheetData>
